--- a/MYoutput.xlsx
+++ b/MYoutput.xlsx
@@ -1,16 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
-  <sheets/>
+  <sheets>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+  </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>Project_1</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>User10</t>
+  </si>
+  <si>
+    <t>User12</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User8</t>
+  </si>
+  <si>
+    <t>User11</t>
+  </si>
+  <si>
+    <t>Project_2</t>
+  </si>
+  <si>
+    <t>User14</t>
+  </si>
+  <si>
+    <t>User13</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,4 +100,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>114.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>156.16666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/MYoutput.xlsx
+++ b/MYoutput.xlsx
@@ -17,49 +17,49 @@
     <t>Project_1</t>
   </si>
   <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
     <t>User7</t>
   </si>
   <si>
+    <t>User8</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
     <t>User10</t>
   </si>
   <si>
+    <t>User11</t>
+  </si>
+  <si>
     <t>User12</t>
   </si>
   <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>User5</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>User6</t>
-  </si>
-  <si>
-    <t>User9</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>User8</t>
-  </si>
-  <si>
-    <t>User11</t>
-  </si>
-  <si>
     <t>Project_2</t>
   </si>
   <si>
+    <t>User13</t>
+  </si>
+  <si>
     <t>User14</t>
-  </si>
-  <si>
-    <t>User13</t>
   </si>
 </sst>
 </file>
@@ -123,13 +123,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>156.0</v>
+        <v>114.25</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>176.0</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="3">
@@ -137,7 +137,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>177.5</v>
+        <v>176.0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -151,7 +151,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>171.0</v>
+        <v>156.16666666666666</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -168,10 +168,10 @@
         <v>142.0</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="6">
@@ -193,7 +193,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>114.25</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="8">
@@ -201,7 +201,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>156.16666666666666</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="9">
@@ -225,7 +225,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>176.0</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="12">
@@ -233,7 +233,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>176.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
@@ -241,7 +241,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.0</v>
+        <v>171.0</v>
       </c>
     </row>
   </sheetData>
